--- a/SchedulingData/dynamic12/pso/scheduling2_7.xlsx
+++ b/SchedulingData/dynamic12/pso/scheduling2_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,344 +462,344 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>251.82</v>
+        <v>203.36</v>
       </c>
       <c r="D2" t="n">
-        <v>308.74</v>
+        <v>242.38</v>
       </c>
       <c r="E2" t="n">
-        <v>13.396</v>
+        <v>15.432</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>216.02</v>
+        <v>229.82</v>
       </c>
       <c r="D3" t="n">
-        <v>274.46</v>
+        <v>304.82</v>
       </c>
       <c r="E3" t="n">
-        <v>14.224</v>
+        <v>12.188</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>224.82</v>
+        <v>212.12</v>
       </c>
       <c r="D4" t="n">
-        <v>285.02</v>
+        <v>269.4</v>
       </c>
       <c r="E4" t="n">
-        <v>12.688</v>
+        <v>14.58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>212.52</v>
+        <v>269.4</v>
       </c>
       <c r="D5" t="n">
-        <v>273.66</v>
+        <v>356.9</v>
       </c>
       <c r="E5" t="n">
-        <v>16.584</v>
+        <v>10.92</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>274.46</v>
+        <v>235.18</v>
       </c>
       <c r="D6" t="n">
-        <v>309.52</v>
+        <v>271.38</v>
       </c>
       <c r="E6" t="n">
-        <v>11.848</v>
+        <v>13.012</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>308.74</v>
+        <v>304.82</v>
       </c>
       <c r="D7" t="n">
-        <v>353.16</v>
+        <v>348.46</v>
       </c>
       <c r="E7" t="n">
-        <v>11.064</v>
+        <v>8.964</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>309.52</v>
+        <v>209</v>
       </c>
       <c r="D8" t="n">
-        <v>353.06</v>
+        <v>245.9</v>
       </c>
       <c r="E8" t="n">
-        <v>8.624000000000001</v>
+        <v>11.62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>285.02</v>
+        <v>245.9</v>
       </c>
       <c r="D9" t="n">
-        <v>337.8</v>
+        <v>288.7</v>
       </c>
       <c r="E9" t="n">
-        <v>9.039999999999999</v>
+        <v>7.98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>253.5</v>
+        <v>251.4</v>
       </c>
       <c r="D10" t="n">
-        <v>297.96</v>
+        <v>307.9</v>
       </c>
       <c r="E10" t="n">
-        <v>12.344</v>
+        <v>15.34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>273.66</v>
+        <v>242.38</v>
       </c>
       <c r="D11" t="n">
-        <v>330.86</v>
+        <v>298.72</v>
       </c>
       <c r="E11" t="n">
-        <v>13.504</v>
+        <v>12.408</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>223.56</v>
+        <v>298.72</v>
       </c>
       <c r="D12" t="n">
-        <v>285</v>
+        <v>330.64</v>
       </c>
       <c r="E12" t="n">
-        <v>11.7</v>
+        <v>9.856</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>337.8</v>
+        <v>288.7</v>
       </c>
       <c r="D13" t="n">
-        <v>396.62</v>
+        <v>355.7</v>
       </c>
       <c r="E13" t="n">
-        <v>6.268</v>
+        <v>4.86</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>353.06</v>
+        <v>348.46</v>
       </c>
       <c r="D14" t="n">
-        <v>426.92</v>
+        <v>405.32</v>
       </c>
       <c r="E14" t="n">
-        <v>4.828</v>
+        <v>6.368</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>330.86</v>
+        <v>330.64</v>
       </c>
       <c r="D15" t="n">
-        <v>386.88</v>
+        <v>370.8</v>
       </c>
       <c r="E15" t="n">
-        <v>10.032</v>
+        <v>7.48</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>353.16</v>
+        <v>370.8</v>
       </c>
       <c r="D16" t="n">
-        <v>410.66</v>
+        <v>401.4</v>
       </c>
       <c r="E16" t="n">
-        <v>7.424</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>297.96</v>
+        <v>307.9</v>
       </c>
       <c r="D17" t="n">
-        <v>354.52</v>
+        <v>370.2</v>
       </c>
       <c r="E17" t="n">
-        <v>8.808</v>
+        <v>12.22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>285</v>
+        <v>271.38</v>
       </c>
       <c r="D18" t="n">
-        <v>358.86</v>
+        <v>328.3</v>
       </c>
       <c r="E18" t="n">
-        <v>8.423999999999999</v>
+        <v>9.94</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>410.66</v>
+        <v>401.4</v>
       </c>
       <c r="D19" t="n">
-        <v>455.28</v>
+        <v>468.9</v>
       </c>
       <c r="E19" t="n">
-        <v>5.092</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="20">
@@ -808,55 +808,55 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>426.92</v>
+        <v>370.2</v>
       </c>
       <c r="D20" t="n">
-        <v>464.82</v>
+        <v>404.92</v>
       </c>
       <c r="E20" t="n">
-        <v>2.668</v>
+        <v>9.888</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>396.62</v>
+        <v>404.92</v>
       </c>
       <c r="D21" t="n">
-        <v>447.82</v>
+        <v>447.02</v>
       </c>
       <c r="E21" t="n">
-        <v>3.748</v>
+        <v>6.808</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>354.52</v>
+        <v>447.02</v>
       </c>
       <c r="D22" t="n">
-        <v>401.62</v>
+        <v>484.82</v>
       </c>
       <c r="E22" t="n">
-        <v>5.728</v>
+        <v>4.648</v>
       </c>
     </row>
     <row r="23">
@@ -865,36 +865,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>455.28</v>
+        <v>356.9</v>
       </c>
       <c r="D23" t="n">
-        <v>507.48</v>
+        <v>430.72</v>
       </c>
       <c r="E23" t="n">
-        <v>2.012</v>
+        <v>7.168</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>401.62</v>
+        <v>430.72</v>
       </c>
       <c r="D24" t="n">
-        <v>489.02</v>
+        <v>465.44</v>
       </c>
       <c r="E24" t="n">
-        <v>3.568</v>
+        <v>4.836</v>
       </c>
     </row>
     <row r="25">
@@ -903,55 +903,74 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>386.88</v>
+        <v>328.3</v>
       </c>
       <c r="D25" t="n">
-        <v>437.28</v>
+        <v>390</v>
       </c>
       <c r="E25" t="n">
-        <v>7.612</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>358.86</v>
+        <v>390</v>
       </c>
       <c r="D26" t="n">
-        <v>407.68</v>
+        <v>462.1</v>
       </c>
       <c r="E26" t="n">
-        <v>4.672</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>437.28</v>
+        <v>405.32</v>
       </c>
       <c r="D27" t="n">
-        <v>506.72</v>
+        <v>448.92</v>
       </c>
       <c r="E27" t="n">
-        <v>4.308</v>
+        <v>2.648</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>pond4</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>355.7</v>
+      </c>
+      <c r="D28" t="n">
+        <v>424.96</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.044</v>
       </c>
     </row>
   </sheetData>
